--- a/shared_data/E2F_c5bp_summaryFigure_Final.xlsx
+++ b/shared_data/E2F_c5bp_summaryFigure_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20377"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\shared_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7900B0EF-E4C9-46F3-840B-0D180E79D645}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B57B0F-EC6C-46C4-95C8-8B751C30687B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25050" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,12 +556,12 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="3" customWidth="1"/>
     <col min="4" max="8" width="9.42578125" style="4" customWidth="1"/>
